--- a/biology/Biochimie/Déshydrogénase/Déshydrogénase.xlsx
+++ b/biology/Biochimie/Déshydrogénase/Déshydrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9shydrog%C3%A9nase</t>
+          <t>Déshydrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une déshydrogénase (appelée aussi DHO dans la littérature) est une enzyme qui oxyde un substrat par le transfert d'un ou plusieurs ions (H+) à un accepteur, généralement un coenzyme type  NAD+/NADP+ ou flavine comme le FAD ou le FMN.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9shydrog%C3%A9nase</t>
+          <t>Déshydrogénase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aldéhyde déshydrogénase.
 Acétaldéhyde déshydrogénase.
@@ -520,9 +534,43 @@
 Lactate déshydrogénase.
 Pyruvate déshydrogénase (une enzyme commune qui intervient dans le cycle de Krebs en convertissant le pyruvate en acétyl-CoA).
 Glucose-6-phosphate déshydrogénase (impliquée dans la voie des pentoses phosphates).
-Glycéraldéhyde-3-phosphate déshydrogénase (impliquée dans la glycolyse).
-Dans le cycle de Krebs
-Isocitrate déshydrogénase.
+Glycéraldéhyde-3-phosphate déshydrogénase (impliquée dans la glycolyse).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Déshydrogénase</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9shydrog%C3%A9nase</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dans le cycle de Krebs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Isocitrate déshydrogénase.
 alpha-Cétoglutarate déshydrogénase.
 Succinate déshydrogénase.
 Malate déshydrogénase.</t>
